--- a/home/phpspreadsheet/Stock Balance.xlsx
+++ b/home/phpspreadsheet/Stock Balance.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -32,70 +32,10 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>ARAPAR</t>
-  </si>
-  <si>
-    <t>Arabica Parchment</t>
-  </si>
-  <si>
-    <t>DRLOSS</t>
-  </si>
-  <si>
-    <t>Drying Loss</t>
-  </si>
-  <si>
-    <t>DRUG2A</t>
-  </si>
-  <si>
-    <t>Arabica Drugar AA</t>
-  </si>
-  <si>
-    <t>GHUSKS</t>
-  </si>
-  <si>
-    <t>Grader Husks</t>
-  </si>
-  <si>
     <t>KIBOKO</t>
   </si>
   <si>
     <t>Kibooko</t>
-  </si>
-  <si>
-    <t>NRSC12</t>
-  </si>
-  <si>
-    <t>Natural Robusta Screen 1200</t>
-  </si>
-  <si>
-    <t>NRSC15</t>
-  </si>
-  <si>
-    <t>Natural Robusta Screen 1500</t>
-  </si>
-  <si>
-    <t>NRSC17</t>
-  </si>
-  <si>
-    <t>Natural Robusta Screen 1700</t>
-  </si>
-  <si>
-    <t>NRSC18</t>
-  </si>
-  <si>
-    <t>Natural Robusta Screen 1800</t>
-  </si>
-  <si>
-    <t>REJ189</t>
-  </si>
-  <si>
-    <t>Rejects 1899</t>
-  </si>
-  <si>
-    <t>STONES</t>
-  </si>
-  <si>
-    <t>Stones</t>
   </si>
 </sst>
 </file>
@@ -431,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,183 +404,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3251.0</v>
+        <v>42301.0</v>
       </c>
       <c r="D2">
-        <v>2400.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2">
-        <v>851.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>0.0</v>
-      </c>
-      <c r="D3">
-        <v>0.0</v>
-      </c>
-      <c r="E3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0.0</v>
-      </c>
-      <c r="D4">
-        <v>2600.0</v>
-      </c>
-      <c r="E4">
-        <v>-2600.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>0.0</v>
-      </c>
-      <c r="D5">
-        <v>0.0</v>
-      </c>
-      <c r="E5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
         <v>42301.0</v>
-      </c>
-      <c r="D6">
-        <v>2800.0</v>
-      </c>
-      <c r="E6">
-        <v>39501.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>0.0</v>
-      </c>
-      <c r="D7">
-        <v>0.0</v>
-      </c>
-      <c r="E7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>200.0</v>
-      </c>
-      <c r="D8">
-        <v>0.0</v>
-      </c>
-      <c r="E8">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>16002.0</v>
-      </c>
-      <c r="D9">
-        <v>12416.0</v>
-      </c>
-      <c r="E9">
-        <v>3586.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>46430.0</v>
-      </c>
-      <c r="D10">
-        <v>0.0</v>
-      </c>
-      <c r="E10">
-        <v>46430.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>13002.0</v>
-      </c>
-      <c r="D11">
-        <v>0.0</v>
-      </c>
-      <c r="E11">
-        <v>13002.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>0.0</v>
-      </c>
-      <c r="D12">
-        <v>0.0</v>
-      </c>
-      <c r="E12">
-        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/home/phpspreadsheet/Stock Balance.xlsx
+++ b/home/phpspreadsheet/Stock Balance.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -38,46 +38,58 @@
     <t>Arabica Parchment</t>
   </si>
   <si>
-    <t>DRUG2A</t>
-  </si>
-  <si>
-    <t>Arabica Drugar AA</t>
-  </si>
-  <si>
-    <t>DRUGAB</t>
-  </si>
-  <si>
-    <t>Arabica Drugar AB</t>
-  </si>
-  <si>
-    <t>DRUGAC</t>
-  </si>
-  <si>
-    <t>Arabica Drugar C</t>
-  </si>
-  <si>
-    <t>WUGA1A</t>
-  </si>
-  <si>
-    <t>Arabica Wugar A</t>
-  </si>
-  <si>
-    <t>WUGAAB</t>
-  </si>
-  <si>
-    <t>Arabica Wugar AB</t>
-  </si>
-  <si>
-    <t>WUGA1C</t>
-  </si>
-  <si>
-    <t>Arabica Wugar C</t>
-  </si>
-  <si>
-    <t>WUGCPB</t>
-  </si>
-  <si>
-    <t>Arabica Wugar CPB</t>
+    <t>DRLOSS</t>
+  </si>
+  <si>
+    <t>Drying Loss</t>
+  </si>
+  <si>
+    <t>GHUSKS</t>
+  </si>
+  <si>
+    <t>Grader Husks</t>
+  </si>
+  <si>
+    <t>KIBOKO</t>
+  </si>
+  <si>
+    <t>Kibooko</t>
+  </si>
+  <si>
+    <t>NRSC12</t>
+  </si>
+  <si>
+    <t>Natural Robusta Screen 1200</t>
+  </si>
+  <si>
+    <t>NRSC15</t>
+  </si>
+  <si>
+    <t>Natural Robusta Screen 1500</t>
+  </si>
+  <si>
+    <t>NRSC17</t>
+  </si>
+  <si>
+    <t>Natural Robusta Screen 1700</t>
+  </si>
+  <si>
+    <t>NRSC18</t>
+  </si>
+  <si>
+    <t>Natural Robusta Screen 1800</t>
+  </si>
+  <si>
+    <t>REJ189</t>
+  </si>
+  <si>
+    <t>Rejects 1899</t>
+  </si>
+  <si>
+    <t>STONES</t>
+  </si>
+  <si>
+    <t>Stones</t>
   </si>
 </sst>
 </file>
@@ -413,7 +425,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +478,10 @@
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3">
-        <v>-1000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -483,10 +495,10 @@
         <v>0.0</v>
       </c>
       <c r="D4">
-        <v>2000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4">
-        <v>-2000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -497,13 +509,13 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>42301.0</v>
       </c>
       <c r="D5">
-        <v>3000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5">
-        <v>-3000.0</v>
+        <v>42301.0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -514,13 +526,13 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>6100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6">
-        <v>5600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -531,13 +543,13 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>6200.0</v>
+        <v>200.0</v>
       </c>
       <c r="D7">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="E7">
-        <v>5800.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -548,13 +560,13 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>16002.0</v>
       </c>
       <c r="D8">
-        <v>210.0</v>
+        <v>12416.0</v>
       </c>
       <c r="E8">
-        <v>-210.0</v>
+        <v>3586.0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -565,13 +577,47 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>6300.0</v>
+        <v>46430.0</v>
       </c>
       <c r="D9">
         <v>0.0</v>
       </c>
       <c r="E9">
-        <v>6300.0</v>
+        <v>46430.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>13002.0</v>
+      </c>
+      <c r="D10">
+        <v>0.0</v>
+      </c>
+      <c r="E10">
+        <v>13002.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>0.0</v>
+      </c>
+      <c r="E11">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
